--- a/cw4/Akowarik-Amica-GPW.xlsx
+++ b/cw4/Akowarik-Amica-GPW.xlsx
@@ -858,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -871,6 +871,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1210,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1221,7 +1224,7 @@
     <col min="1" max="1" width="12.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>255</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>254</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>253</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>252</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>-1.87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>251</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>250</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>249</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>-1.48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>248</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>247</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>-4.5599999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>246</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>245</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>244</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>243</v>
       </c>
@@ -1542,8 +1545,9 @@
       <c r="G14" s="5">
         <v>-1.0900000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>242</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>241</v>
       </c>
